--- a/Top30Instances_01-10-2026.xlsx
+++ b/Top30Instances_01-10-2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,41 +502,41 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACHR</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VTI</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7200000000000024</v>
+        <v>3.979999999999997</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96013979430847</v>
+        <v>1.500874556038208</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3770208139558084</v>
+        <v>0.3826345390592086</v>
       </c>
       <c r="K2" t="n">
         <v>0.5</v>
       </c>
       <c r="L2" t="n">
-        <v>4.440209691462705</v>
+        <v>4.502623668114624</v>
       </c>
     </row>
     <row r="3">
@@ -546,41 +546,41 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AEO</t>
+          <t>ACHR</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VB</t>
+          <t>VTI</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.005</v>
+        <v>0.035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.015</v>
+        <v>0.045</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.27</v>
+        <v>0.7200000000000024</v>
       </c>
       <c r="I3" t="n">
-        <v>1.778394007923212</v>
+        <v>2.96013979430847</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2777438537976029</v>
+        <v>0.3770208139558084</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.667591011884818</v>
+        <v>4.440209691462705</v>
       </c>
     </row>
     <row r="4">
@@ -590,41 +590,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>AEO</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>XLV</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.015</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.035</v>
-      </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5599999999999987</v>
+        <v>2.27</v>
       </c>
       <c r="I4" t="n">
-        <v>1.368406497419679</v>
+        <v>1.778394007923212</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8343346906374652</v>
+        <v>0.2777438537976029</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L4" t="n">
-        <v>2.052609746129519</v>
+        <v>2.667591011884818</v>
       </c>
     </row>
     <row r="5">
@@ -638,37 +638,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>8.390000000000015</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2614862605697</v>
+        <v>0.9497002111892838</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4473288293924238</v>
+        <v>0.3602845120429454</v>
       </c>
       <c r="K5" t="n">
         <v>0.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.89222939085455</v>
+        <v>2.37425052797321</v>
       </c>
     </row>
     <row r="6">
@@ -678,41 +678,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>XLV</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>5.030000000000001</v>
+        <v>0.5599999999999987</v>
       </c>
       <c r="I6" t="n">
-        <v>1.599142517345949</v>
+        <v>1.368406497419679</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.03013087902955143</v>
+        <v>0.8343346906374652</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.599142517345948</v>
+        <v>2.052609746129519</v>
       </c>
     </row>
     <row r="7">
@@ -722,41 +722,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLK</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1499999999999995</v>
+        <v>8.390000000000015</v>
       </c>
       <c r="I7" t="n">
-        <v>1.534897091971593</v>
+        <v>1.2614862605697</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08402491221505548</v>
+        <v>0.4473288293924238</v>
       </c>
       <c r="K7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.534897091971593</v>
+        <v>1.89222939085455</v>
       </c>
     </row>
     <row r="8">
@@ -770,37 +770,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.810000000000002</v>
+        <v>5.030000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7466461201731519</v>
+        <v>1.599142517345949</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.731986099607392</v>
+        <v>-0.03013087902955143</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L8" t="n">
-        <v>1.119969180259728</v>
+        <v>1.599142517345948</v>
       </c>
     </row>
     <row r="9">
@@ -810,41 +810,525 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>ABEV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0.120000000000001</v>
+        <v>0.1499999999999995</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3694818592763882</v>
+        <v>1.534897091971593</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.596704053883404</v>
+        <v>0.08402491221505548</v>
       </c>
       <c r="K9" t="n">
         <v>0.25</v>
       </c>
       <c r="L9" t="n">
+        <v>1.534897091971593</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AG</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.169999999999998</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.418799043215484</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-0.5521363207367291</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.209399521607742</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>700</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AMCR</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VOO</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1899999999999995</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7565473413901606</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1524031006330547</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.134821012085241</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>XLE</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.810000000000002</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7466461201731519</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.731986099607392</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.119969180259728</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>300</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4900000000000002</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7130922028975398</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.1122238755614124</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7130922028975395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>300</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.370000000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6249013120494862</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.7222830133538194</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6249013120494862</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VOO</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.350000000000009</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4758706550660685</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3939019222331558</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4758706550660685</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VTV</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.259999999999998</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4716763912976485</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6284670641000051</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4716763912976485</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8314196837185076</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.2145432597498294</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4157098418592536</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.120000000000001</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.3694818592763882</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.596704053883404</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3694818592763882</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>300</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>XLE</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.5128141977868483</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7357580603499891</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2564070988934241</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>600</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>XLF</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.440000000000012</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4112292163947077</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-0.2363081284792234</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2056146081973538</v>
       </c>
     </row>
   </sheetData>

--- a/Top30Instances_01-10-2026.xlsx
+++ b/Top30Instances_01-10-2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -634,41 +634,41 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BFLY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>VOO</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.035</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>9.719999999999999</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9497002111892838</v>
+        <v>2.465412361180569</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3602845120429454</v>
+        <v>0.1023211764106025</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.37425052797321</v>
+        <v>2.465412361180569</v>
       </c>
     </row>
     <row r="6">
@@ -678,41 +678,41 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>XLV</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5599999999999987</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1.368406497419679</v>
+        <v>0.9497002111892838</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8343346906374652</v>
+        <v>0.3602845120429454</v>
       </c>
       <c r="K6" t="n">
         <v>0.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.052609746129519</v>
+        <v>2.37425052797321</v>
       </c>
     </row>
     <row r="7">
@@ -722,41 +722,41 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>BBD</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="F7" t="n">
         <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>8.390000000000015</v>
+        <v>0.2199999999999998</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2614862605697</v>
+        <v>1.121716806564604</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4473288293924238</v>
+        <v>0.7898194088129511</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="L7" t="n">
-        <v>1.89222939085455</v>
+        <v>2.243433613129208</v>
       </c>
     </row>
     <row r="8">
@@ -766,41 +766,41 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BAX</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0.015</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>5.030000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="I8" t="n">
-        <v>1.599142517345949</v>
+        <v>1.392723764982686</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.03013087902955143</v>
+        <v>0.4529281834340759</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.599142517345948</v>
+        <v>2.089085647474029</v>
       </c>
     </row>
     <row r="9">
@@ -810,41 +810,41 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AES</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLV</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="F9" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1499999999999995</v>
+        <v>0.5599999999999987</v>
       </c>
       <c r="I9" t="n">
-        <v>1.534897091971593</v>
+        <v>1.368406497419679</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08402491221505548</v>
+        <v>0.8343346906374652</v>
       </c>
       <c r="K9" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.534897091971593</v>
+        <v>2.052609746129519</v>
       </c>
     </row>
     <row r="10">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -867,28 +867,28 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1.169999999999998</v>
+        <v>8.390000000000015</v>
       </c>
       <c r="I10" t="n">
-        <v>2.418799043215484</v>
+        <v>1.2614862605697</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.5521363207367291</v>
+        <v>0.4473288293924238</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.209399521607742</v>
+        <v>1.89222939085455</v>
       </c>
     </row>
     <row r="11">
@@ -898,41 +898,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>BBAI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VOO</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F11" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1899999999999995</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7565473413901606</v>
+        <v>3.331506031814824</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1524031006330547</v>
+        <v>0.2516184357209683</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L11" t="n">
-        <v>1.134821012085241</v>
+        <v>1.665753015907411</v>
       </c>
     </row>
     <row r="12">
@@ -946,37 +946,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.810000000000002</v>
+        <v>5.030000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7466461201731519</v>
+        <v>1.599142517345949</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.731986099607392</v>
+        <v>-0.03013087902955143</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>1.119969180259728</v>
+        <v>1.599142517345948</v>
       </c>
     </row>
     <row r="13">
@@ -986,41 +986,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>ABEV</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.1499999999999995</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7130922028975398</v>
+        <v>1.534897091971593</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.1122238755614124</v>
+        <v>0.08402491221505548</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7130922028975395</v>
+        <v>1.534897091971593</v>
       </c>
     </row>
     <row r="14">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1043,28 +1043,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0.370000000000001</v>
+        <v>1.169999999999998</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6249013120494862</v>
+        <v>2.418799043215484</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7222830133538194</v>
+        <v>-0.5521363207367291</v>
       </c>
       <c r="K14" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6249013120494862</v>
+        <v>1.209399521607742</v>
       </c>
     </row>
     <row r="15">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>AMCR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1087,28 +1087,28 @@
         </is>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.005</v>
       </c>
-      <c r="F15" t="n">
-        <v>0.03</v>
-      </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2.350000000000009</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4758706550660685</v>
+        <v>0.7565473413901606</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3939019222331558</v>
+        <v>0.1524031006330547</v>
       </c>
       <c r="K15" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4758706550660685</v>
+        <v>1.134821012085241</v>
       </c>
     </row>
     <row r="16">
@@ -1122,37 +1122,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VTV</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E16" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.015</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.035</v>
-      </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>0.259999999999998</v>
+        <v>2.810000000000002</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4716763912976485</v>
+        <v>0.7466461201731519</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6284670641000051</v>
+        <v>-0.731986099607392</v>
       </c>
       <c r="K16" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4716763912976485</v>
+        <v>1.119969180259728</v>
       </c>
     </row>
     <row r="17">
@@ -1162,41 +1162,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.015</v>
+        <v>0.045</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05000000000000004</v>
+        <v>1.209999999999997</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8314196837185076</v>
+        <v>0.708180006015429</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2145432597498294</v>
+        <v>-0.2514607697621636</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4157098418592536</v>
+        <v>1.062270009023143</v>
       </c>
     </row>
     <row r="18">
@@ -1206,11 +1206,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>BBWI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1219,28 +1219,28 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="G18" t="n">
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.120000000000001</v>
+        <v>0.9099999999999966</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3694818592763882</v>
+        <v>1.052537802867953</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.596704053883404</v>
+        <v>-0.5371040737177452</v>
       </c>
       <c r="K18" t="n">
         <v>0.25</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3694818592763882</v>
+        <v>1.052537802867953</v>
       </c>
     </row>
     <row r="19">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1266,25 +1266,25 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1399999999999997</v>
+        <v>1.780000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5128141977868483</v>
+        <v>0.6388402594449771</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7357580603499891</v>
+        <v>-0.2548150287231321</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2564070988934241</v>
+        <v>0.9582603891674657</v>
       </c>
     </row>
     <row r="20">
@@ -1294,40 +1294,392 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>VOO</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>0.01</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1.440000000000012</v>
+        <v>5.029999999999987</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4112292163947077</v>
+        <v>1.623884363288012</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.2363081284792234</v>
+        <v>-0.2379097904860054</v>
       </c>
       <c r="K20" t="n">
         <v>0.1666666666666666</v>
       </c>
       <c r="L20" t="n">
+        <v>0.8119421816440057</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>300</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AVTR</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4900000000000002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.7130922028975398</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.1122238755614124</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7130922028975395</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>300</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ASX</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.370000000000001</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6249013120494862</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.7222830133538194</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.6249013120494862</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>VOO</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.350000000000009</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4758706550660685</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.3939019222331558</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.4758706550660685</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VTV</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.259999999999998</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4716763912976485</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.6284670641000051</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4716763912976485</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>200</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8314196837185076</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-0.2145432597498294</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.4157098418592536</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.120000000000001</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3694818592763882</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-0.596704053883404</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3694818592763882</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>300</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AMPX</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>XLE</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1399999999999997</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5128141977868483</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7357580603499891</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2564070988934241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>XLF</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.440000000000012</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4112292163947077</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-0.2363081284792234</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1666666666666666</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.2056146081973538</v>
       </c>
     </row>

--- a/Top30Instances_01-10-2026.xlsx
+++ b/Top30Instances_01-10-2026.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -898,41 +898,41 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BBAI</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>VTV</t>
         </is>
       </c>
       <c r="E11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.01</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.02</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5499999999999998</v>
+        <v>1.739999999999995</v>
       </c>
       <c r="I11" t="n">
-        <v>3.331506031814824</v>
+        <v>1.113426208136237</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2516184357209683</v>
+        <v>0.01995781473698906</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.665753015907411</v>
+        <v>1.670139312204356</v>
       </c>
     </row>
     <row r="12">
@@ -946,7 +946,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BBAI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -955,28 +955,28 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>5.030000000000001</v>
+        <v>0.5499999999999998</v>
       </c>
       <c r="I12" t="n">
-        <v>1.599142517345949</v>
+        <v>3.331506031814824</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.03013087902955143</v>
+        <v>0.2516184357209683</v>
       </c>
       <c r="K12" t="n">
         <v>0.1666666666666666</v>
       </c>
       <c r="L12" t="n">
-        <v>1.599142517345948</v>
+        <v>1.665753015907411</v>
       </c>
     </row>
     <row r="13">
@@ -986,41 +986,41 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1499999999999995</v>
+        <v>5.030000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>1.534897091971593</v>
+        <v>1.599142517345949</v>
       </c>
       <c r="J13" t="n">
-        <v>0.08402491221505548</v>
+        <v>-0.03013087902955143</v>
       </c>
       <c r="K13" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>1.534897091971593</v>
+        <v>1.599142517345948</v>
       </c>
     </row>
     <row r="14">
@@ -1030,41 +1030,41 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>CARR</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>TLT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.035</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.169999999999998</v>
+        <v>2.730000000000004</v>
       </c>
       <c r="I14" t="n">
-        <v>2.418799043215484</v>
+        <v>1.039866852095785</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.5521363207367291</v>
+        <v>0.1510632827680891</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.209399521607742</v>
+        <v>1.559800278143677</v>
       </c>
     </row>
     <row r="15">
@@ -1078,37 +1078,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>ABEV</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VOO</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005</v>
+        <v>0.025</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1899999999999995</v>
+        <v>0.1499999999999995</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7565473413901606</v>
+        <v>1.534897091971593</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1524031006330547</v>
+        <v>0.08402491221505548</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.134821012085241</v>
+        <v>1.534897091971593</v>
       </c>
     </row>
     <row r="16">
@@ -1118,16 +1118,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BSX</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>VOO</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1137,22 +1137,22 @@
         <v>0.015</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.810000000000002</v>
+        <v>2.460000000000008</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7466461201731519</v>
+        <v>0.6542296991907393</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.731986099607392</v>
+        <v>0.06550922353590893</v>
       </c>
       <c r="K16" t="n">
         <v>0.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.119969180259728</v>
+        <v>1.308459398381479</v>
       </c>
     </row>
     <row r="17">
@@ -1162,41 +1162,41 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLK</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F17" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>1.209999999999997</v>
+        <v>1.169999999999998</v>
       </c>
       <c r="I17" t="n">
-        <v>0.708180006015429</v>
+        <v>2.418799043215484</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2514607697621636</v>
+        <v>-0.5521363207367291</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L17" t="n">
-        <v>1.062270009023143</v>
+        <v>1.209399521607742</v>
       </c>
     </row>
     <row r="18">
@@ -1206,41 +1206,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BBWI</t>
+          <t>AMCR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>VOO</t>
         </is>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.005</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.015</v>
-      </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9099999999999966</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="I18" t="n">
-        <v>1.052537802867953</v>
+        <v>0.7565473413901606</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.5371040737177452</v>
+        <v>0.1524031006330547</v>
       </c>
       <c r="K18" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.052537802867953</v>
+        <v>1.134821012085241</v>
       </c>
     </row>
     <row r="19">
@@ -1250,11 +1250,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1263,28 +1263,28 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F19" t="n">
         <v>0.015</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1.780000000000001</v>
+        <v>2.810000000000002</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6388402594449771</v>
+        <v>0.7466461201731519</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.2548150287231321</v>
+        <v>-0.731986099607392</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9582603891674657</v>
+        <v>1.119969180259728</v>
       </c>
     </row>
     <row r="20">
@@ -1294,41 +1294,41 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VOO</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>5.029999999999987</v>
+        <v>1.209999999999997</v>
       </c>
       <c r="I20" t="n">
-        <v>1.623884363288012</v>
+        <v>0.708180006015429</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.2379097904860054</v>
+        <v>-0.2514607697621636</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L20" t="n">
-        <v>0.8119421816440057</v>
+        <v>1.062270009023143</v>
       </c>
     </row>
     <row r="21">
@@ -1338,41 +1338,41 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>BBWI</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>TLT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.9099999999999966</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7130922028975398</v>
+        <v>1.052537802867953</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.1122238755614124</v>
+        <v>-0.5371040737177452</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7130922028975395</v>
+        <v>1.052537802867953</v>
       </c>
     </row>
     <row r="22">
@@ -1382,41 +1382,41 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>BTE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>0.370000000000001</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6249013120494862</v>
+        <v>1.988984088127295</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7222830133538194</v>
+        <v>-0.3005635487687064</v>
       </c>
       <c r="K22" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6249013120494862</v>
+        <v>0.9944920440636471</v>
       </c>
     </row>
     <row r="23">
@@ -1426,41 +1426,41 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VOO</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.350000000000009</v>
+        <v>1.780000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4758706550660685</v>
+        <v>0.6388402594449771</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3939019222331558</v>
+        <v>-0.2548150287231321</v>
       </c>
       <c r="K23" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4758706550660685</v>
+        <v>0.9582603891674657</v>
       </c>
     </row>
     <row r="24">
@@ -1470,41 +1470,41 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VTV</t>
+          <t>VOO</t>
         </is>
       </c>
       <c r="E24" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.015</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.035</v>
-      </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.259999999999998</v>
+        <v>5.029999999999987</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4716763912976485</v>
+        <v>1.623884363288012</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6284670641000051</v>
+        <v>-0.2379097904860054</v>
       </c>
       <c r="K24" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4716763912976485</v>
+        <v>0.8119421816440057</v>
       </c>
     </row>
     <row r="25">
@@ -1514,11 +1514,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>AVTR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8314196837185076</v>
+        <v>0.7130922028975398</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.2145432597498294</v>
+        <v>-0.1122238755614124</v>
       </c>
       <c r="K25" t="n">
         <v>0.1666666666666666</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4157098418592536</v>
+        <v>0.7130922028975395</v>
       </c>
     </row>
     <row r="26">
@@ -1558,41 +1558,41 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TLT</t>
+          <t>XLK</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>0.120000000000001</v>
+        <v>4.740000000000009</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3694818592763882</v>
+        <v>1.389212612288615</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.596704053883404</v>
+        <v>0.519634994711519</v>
       </c>
       <c r="K26" t="n">
-        <v>0.25</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3694818592763882</v>
+        <v>0.6946063061443072</v>
       </c>
     </row>
     <row r="27">
@@ -1606,37 +1606,37 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AMPX</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLK</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.025</v>
+        <v>0.01</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1399999999999997</v>
+        <v>0.370000000000001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5128141977868483</v>
+        <v>0.6249013120494862</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7357580603499891</v>
+        <v>0.7222830133538194</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2564070988934241</v>
+        <v>0.6249013120494862</v>
       </c>
     </row>
     <row r="28">
@@ -1646,41 +1646,173 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>VOO</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F28" t="n">
         <v>0.03</v>
       </c>
       <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.350000000000009</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4758706550660685</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.3939019222331558</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.4758706550660685</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>100</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AI</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VTV</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.259999999999998</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.4716763912976485</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6284670641000051</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.4716763912976485</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>300</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ALIT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>XLK</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G30" t="n">
         <v>3</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.440000000000012</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.4112292163947077</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-0.2363081284792234</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="H30" t="n">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8314196837185076</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-0.2145432597498294</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1666666666666666</v>
       </c>
-      <c r="L28" t="n">
-        <v>0.2056146081973538</v>
+      <c r="L30" t="n">
+        <v>0.4157098418592536</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>('2025-12-10', '2026-01-09')</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>300</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ADT</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TLT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.120000000000001</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.3694818592763882</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.596704053883404</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3694818592763882</v>
       </c>
     </row>
   </sheetData>
